--- a/Resources/JAX OPEN ORDERS.xlsx
+++ b/Resources/JAX OPEN ORDERS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekeymon\OneDrive - Wabtec Corporation\Emily's Files\YT FORECAST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekeymon\Documents\Forecast-Analysis\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{DE593023-5EC2-449E-817D-D0C5CD569C62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E92F5D9A-770D-4B5C-AA94-11310E99DEDC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8D2BDB-9FE1-4AFD-8E4E-3DCD1841F3AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92FD8C9C-CA52-45E8-9913-6F1B0F0B519C}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>Extended Price</t>
   </si>
   <si>
-    <t xml:space="preserve">Item Cost </t>
-  </si>
-  <si>
     <t>Material Cost</t>
   </si>
   <si>
@@ -846,6 +843,9 @@
   </si>
   <si>
     <t>YT50972-124.50</t>
+  </si>
+  <si>
+    <t>Item Cost</t>
   </si>
 </sst>
 </file>
@@ -1278,10 +1278,10 @@
   <dimension ref="A1:Z230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O231" sqref="O231"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,51 +1360,51 @@
         <v>14</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="C2" s="6">
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="6">
         <v>110915</v>
@@ -1454,31 +1454,31 @@
       </c>
       <c r="U2" s="8"/>
       <c r="V2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="C3" s="6">
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="6">
         <v>563540</v>
@@ -1528,31 +1528,31 @@
       </c>
       <c r="U3" s="8"/>
       <c r="V3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="X3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="Y3" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="Z3" s="6"/>
     </row>
     <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="C4" s="6">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="6">
         <v>110876</v>
@@ -1604,31 +1604,31 @@
         <v>42</v>
       </c>
       <c r="V4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="X4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="Y4" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="Z4" s="6"/>
     </row>
     <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="6">
         <v>563781</v>
@@ -1678,31 +1678,31 @@
       </c>
       <c r="U5" s="8"/>
       <c r="V5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="X5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="Y5" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="Z5" s="6"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="6">
         <v>110913</v>
@@ -1752,31 +1752,31 @@
       </c>
       <c r="U6" s="8"/>
       <c r="V6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="X6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="Y6" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="Z6" s="6"/>
     </row>
     <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="E7" s="6">
         <v>560965</v>
@@ -1822,31 +1822,31 @@
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W7" s="6" t="s">
+      <c r="X7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X7" s="6" t="s">
+      <c r="Y7" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="E8" s="6">
         <v>563853</v>
@@ -1892,31 +1892,31 @@
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
       <c r="V8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="W8" s="6" t="s">
+      <c r="X8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="X8" s="6" t="s">
+      <c r="Y8" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="Y8" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Z8" s="6"/>
     </row>
     <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="6">
         <v>563846</v>
@@ -1962,31 +1962,31 @@
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="W9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="W9" s="6" t="s">
+      <c r="X9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="X9" s="6" t="s">
+      <c r="Y9" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="Z9" s="6"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="6">
         <v>563608</v>
@@ -2032,31 +2032,31 @@
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W10" s="6" t="s">
+      <c r="X10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X10" s="6" t="s">
+      <c r="Y10" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y10" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z10" s="6"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="C11" s="6">
         <v>3</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="6">
         <v>110902</v>
@@ -2108,31 +2108,31 @@
         <v>132</v>
       </c>
       <c r="V11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="W11" s="6" t="s">
+      <c r="X11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="X11" s="6" t="s">
+      <c r="Y11" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="Y11" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="Z11" s="6"/>
     </row>
     <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="6">
         <v>563612</v>
@@ -2178,31 +2178,31 @@
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W12" s="6" t="s">
+      <c r="X12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X12" s="6" t="s">
+      <c r="Y12" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y12" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z12" s="6"/>
     </row>
     <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="6">
         <v>563640</v>
@@ -2248,31 +2248,31 @@
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W13" s="6" t="s">
+      <c r="X13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X13" s="6" t="s">
+      <c r="Y13" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y13" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z13" s="6"/>
     </row>
     <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="C14" s="6">
         <v>3</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="6">
         <v>563915</v>
@@ -2322,31 +2322,31 @@
       </c>
       <c r="U14" s="8"/>
       <c r="V14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="6" t="s">
+      <c r="X14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="X14" s="6" t="s">
+      <c r="Y14" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="Y14" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="Z14" s="6"/>
     </row>
     <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="C15" s="6">
         <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="6">
         <v>563910</v>
@@ -2396,29 +2396,29 @@
       </c>
       <c r="U15" s="8"/>
       <c r="V15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W15" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W15" s="6" t="s">
+      <c r="X15" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X15" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
     </row>
     <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="C16" s="6">
         <v>3</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="6">
         <v>563606</v>
@@ -2468,29 +2468,29 @@
       </c>
       <c r="U16" s="8"/>
       <c r="V16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W16" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W16" s="6" t="s">
+      <c r="X16" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X16" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
     </row>
     <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="C17" s="6">
         <v>3</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="6">
         <v>563909</v>
@@ -2540,29 +2540,29 @@
       </c>
       <c r="U17" s="8"/>
       <c r="V17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W17" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W17" s="6" t="s">
+      <c r="X17" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X17" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
     </row>
     <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="C18" s="6">
         <v>3</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="6">
         <v>563918</v>
@@ -2612,29 +2612,29 @@
       </c>
       <c r="U18" s="8"/>
       <c r="V18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W18" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W18" s="6" t="s">
+      <c r="X18" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X18" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="D19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="6">
         <v>563877</v>
@@ -2680,31 +2680,31 @@
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
       <c r="V19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W19" s="6" t="s">
+      <c r="X19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="X19" s="6" t="s">
+      <c r="Y19" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="Y19" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="Z19" s="6"/>
     </row>
     <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="C20" s="6">
         <v>3</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="6">
         <v>563390</v>
@@ -2754,31 +2754,31 @@
       </c>
       <c r="U20" s="8"/>
       <c r="V20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W20" s="6" t="s">
+      <c r="X20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="X20" s="6" t="s">
+      <c r="Y20" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="Y20" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="Z20" s="6"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="C21" s="6">
         <v>3</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="6">
         <v>563391</v>
@@ -2828,31 +2828,31 @@
       </c>
       <c r="U21" s="8"/>
       <c r="V21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W21" s="6" t="s">
+      <c r="X21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="X21" s="6" t="s">
+      <c r="Y21" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="Y21" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="Z21" s="6"/>
     </row>
     <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="C22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="E22" s="6">
         <v>563634</v>
@@ -2898,31 +2898,31 @@
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
       <c r="V22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W22" s="6" t="s">
+      <c r="X22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X22" s="6" t="s">
+      <c r="Y22" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y22" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z22" s="6"/>
     </row>
     <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="C23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="E23" s="6">
         <v>563604</v>
@@ -2968,31 +2968,31 @@
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
       <c r="V23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W23" s="6" t="s">
+      <c r="X23" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X23" s="6" t="s">
+      <c r="Y23" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y23" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z23" s="6"/>
     </row>
     <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="C24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="E24" s="6">
         <v>563642</v>
@@ -3038,31 +3038,31 @@
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
       <c r="V24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W24" s="6" t="s">
+      <c r="X24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X24" s="6" t="s">
+      <c r="Y24" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y24" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z24" s="6"/>
     </row>
     <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="C25" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" s="6">
         <v>562747</v>
@@ -3112,31 +3112,31 @@
       </c>
       <c r="U25" s="8"/>
       <c r="V25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W25" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W25" s="6" t="s">
+      <c r="X25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X25" s="6" t="s">
+      <c r="Y25" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y25" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z25" s="6"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="C26" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="6">
         <v>563613</v>
@@ -3182,31 +3182,31 @@
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
       <c r="V26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W26" s="6" t="s">
+      <c r="X26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X26" s="6" t="s">
+      <c r="Y26" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y26" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z26" s="6"/>
     </row>
     <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="C27" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="6">
         <v>563645</v>
@@ -3252,31 +3252,31 @@
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
       <c r="V27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W27" s="6" t="s">
+      <c r="X27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X27" s="6" t="s">
+      <c r="Y27" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y27" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z27" s="6"/>
     </row>
     <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="D28" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" s="6">
         <v>563656</v>
@@ -3322,31 +3322,31 @@
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
       <c r="V28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W28" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W28" s="6" t="s">
+      <c r="X28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="X28" s="6" t="s">
+      <c r="Y28" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="Y28" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="Z28" s="6"/>
     </row>
     <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="D29" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="6">
         <v>563519</v>
@@ -3392,31 +3392,31 @@
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
       <c r="V29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W29" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W29" s="6" t="s">
+      <c r="X29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="X29" s="6" t="s">
+      <c r="Y29" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="Y29" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="Z29" s="6"/>
     </row>
     <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="D30" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" s="6">
         <v>563786</v>
@@ -3462,31 +3462,31 @@
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W30" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W30" s="6" t="s">
+      <c r="X30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="X30" s="6" t="s">
+      <c r="Y30" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="Y30" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="Z30" s="6"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="C31" s="6">
         <v>3</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" s="6">
         <v>563896</v>
@@ -3536,29 +3536,29 @@
       </c>
       <c r="U31" s="8"/>
       <c r="V31" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W31" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="X31" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="X31" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
     </row>
     <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="C32" s="6">
         <v>3</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" s="6">
         <v>563896</v>
@@ -3608,29 +3608,29 @@
       </c>
       <c r="U32" s="8"/>
       <c r="V32" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W32" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="X32" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="X32" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
     </row>
     <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="C33" s="6">
         <v>3</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E33" s="6">
         <v>563895</v>
@@ -3680,29 +3680,29 @@
       </c>
       <c r="U33" s="8"/>
       <c r="V33" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="X33" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="X33" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="C34" s="6">
         <v>3</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34" s="6">
         <v>563898</v>
@@ -3752,29 +3752,29 @@
       </c>
       <c r="U34" s="8"/>
       <c r="V34" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W34" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="X34" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="X34" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
     </row>
     <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="C35" s="6">
         <v>3</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E35" s="6">
         <v>563898</v>
@@ -3824,29 +3824,29 @@
       </c>
       <c r="U35" s="8"/>
       <c r="V35" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W35" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="X35" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="X35" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
     </row>
     <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="C36" s="6">
         <v>3</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E36" s="6">
         <v>563897</v>
@@ -3896,29 +3896,29 @@
       </c>
       <c r="U36" s="8"/>
       <c r="V36" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W36" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="X36" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="X36" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="C37" s="6">
         <v>3</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E37" s="6">
         <v>563027</v>
@@ -3968,31 +3968,31 @@
       </c>
       <c r="U37" s="8"/>
       <c r="V37" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W37" s="6" t="s">
+      <c r="X37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="X37" s="6" t="s">
+      <c r="Y37" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="Y37" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="Z37" s="6"/>
     </row>
     <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="C38" s="6">
         <v>3</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E38" s="6">
         <v>563328</v>
@@ -4042,31 +4042,31 @@
       </c>
       <c r="U38" s="8"/>
       <c r="V38" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W38" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W38" s="6" t="s">
+      <c r="X38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="X38" s="6" t="s">
+      <c r="Y38" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="Y38" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="Z38" s="6"/>
     </row>
     <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="C39" s="6">
         <v>3</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E39" s="6">
         <v>563871</v>
@@ -4116,31 +4116,31 @@
       </c>
       <c r="U39" s="8"/>
       <c r="V39" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W39" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W39" s="6" t="s">
+      <c r="X39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="X39" s="6" t="s">
+      <c r="Y39" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="Y39" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="Z39" s="6"/>
     </row>
     <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="C40" s="6">
         <v>3</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E40" s="6">
         <v>563724</v>
@@ -4190,31 +4190,31 @@
       </c>
       <c r="U40" s="8"/>
       <c r="V40" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W40" s="6" t="s">
+      <c r="X40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="X40" s="6" t="s">
+      <c r="Y40" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="Y40" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="Z40" s="6"/>
     </row>
     <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="C41" s="6">
         <v>3</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E41" s="6">
         <v>563502</v>
@@ -4264,31 +4264,31 @@
       </c>
       <c r="U41" s="8"/>
       <c r="V41" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W41" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W41" s="6" t="s">
+      <c r="X41" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="X41" s="6" t="s">
+      <c r="Y41" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="Y41" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="Z41" s="6"/>
     </row>
     <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="C42" s="6">
         <v>3</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E42" s="6">
         <v>563818</v>
@@ -4338,31 +4338,31 @@
       </c>
       <c r="U42" s="8"/>
       <c r="V42" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W42" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W42" s="6" t="s">
+      <c r="X42" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="X42" s="6" t="s">
+      <c r="Y42" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="Y42" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="Z42" s="6"/>
     </row>
     <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="C43" s="6">
         <v>3</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E43" s="6">
         <v>110870</v>
@@ -4414,31 +4414,31 @@
         <v>209</v>
       </c>
       <c r="V43" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W43" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="W43" s="6" t="s">
+      <c r="X43" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="X43" s="6" t="s">
+      <c r="Y43" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="Y43" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="Z43" s="6"/>
     </row>
     <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>119</v>
-      </c>
       <c r="D44" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E44" s="6">
         <v>563986</v>
@@ -4484,31 +4484,31 @@
       <c r="T44" s="8"/>
       <c r="U44" s="8"/>
       <c r="V44" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W44" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="X44" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W44" s="6" t="s">
+      <c r="Y44" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="X44" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y44" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="Z44" s="6"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="C45" s="6">
         <v>3</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E45" s="6">
         <v>563900</v>
@@ -4558,29 +4558,29 @@
       </c>
       <c r="U45" s="8"/>
       <c r="V45" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W45" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="X45" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="X45" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
     </row>
     <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="C46" s="6">
         <v>3</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E46" s="6">
         <v>563899</v>
@@ -4630,29 +4630,29 @@
       </c>
       <c r="U46" s="8"/>
       <c r="V46" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W46" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="X46" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="X46" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
     </row>
     <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="C47" s="6">
         <v>3</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E47" s="6">
         <v>563900</v>
@@ -4702,29 +4702,29 @@
       </c>
       <c r="U47" s="8"/>
       <c r="V47" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W47" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="X47" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="X47" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="C48" s="6">
         <v>3</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E48" s="6">
         <v>563494</v>
@@ -4776,31 +4776,31 @@
         <v>5.1294000000000004</v>
       </c>
       <c r="V48" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="W48" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="W48" s="6" t="s">
+      <c r="X48" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="X48" s="6" t="s">
+      <c r="Y48" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="Y48" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="Z48" s="6"/>
     </row>
     <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="C49" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="E49" s="6">
         <v>563939</v>
@@ -4846,31 +4846,31 @@
       <c r="T49" s="8"/>
       <c r="U49" s="8"/>
       <c r="V49" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W49" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="X49" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W49" s="6" t="s">
+      <c r="Y49" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="X49" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y49" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="Z49" s="6"/>
     </row>
     <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="D50" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E50" s="6">
         <v>563861</v>
@@ -4916,31 +4916,31 @@
       <c r="T50" s="8"/>
       <c r="U50" s="8"/>
       <c r="V50" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W50" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="X50" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="X50" s="6" t="s">
+      <c r="Y50" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="Y50" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="Z50" s="6"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="C51" s="6">
         <v>3</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E51" s="6">
         <v>563367</v>
@@ -4990,31 +4990,31 @@
       </c>
       <c r="U51" s="8"/>
       <c r="V51" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W51" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W51" s="6" t="s">
+      <c r="X51" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X51" s="6" t="s">
+      <c r="Y51" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y51" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z51" s="6"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="C52" s="6">
         <v>3</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E52" s="6">
         <v>563366</v>
@@ -5064,31 +5064,31 @@
       </c>
       <c r="U52" s="8"/>
       <c r="V52" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W52" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W52" s="6" t="s">
+      <c r="X52" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X52" s="6" t="s">
+      <c r="Y52" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y52" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z52" s="6"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="C53" s="6">
         <v>3</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E53" s="6">
         <v>563081</v>
@@ -5138,31 +5138,31 @@
       </c>
       <c r="U53" s="8"/>
       <c r="V53" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W53" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W53" s="6" t="s">
+      <c r="X53" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X53" s="6" t="s">
+      <c r="Y53" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y53" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z53" s="6"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="C54" s="6">
         <v>3</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E54" s="6">
         <v>563366</v>
@@ -5212,31 +5212,31 @@
       </c>
       <c r="U54" s="8"/>
       <c r="V54" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W54" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W54" s="6" t="s">
+      <c r="X54" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X54" s="6" t="s">
+      <c r="Y54" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y54" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z54" s="6"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="C55" s="6">
         <v>3</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E55" s="6">
         <v>563347</v>
@@ -5286,31 +5286,31 @@
       </c>
       <c r="U55" s="8"/>
       <c r="V55" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W55" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W55" s="6" t="s">
+      <c r="X55" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X55" s="6" t="s">
+      <c r="Y55" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y55" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z55" s="6"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="C56" s="6">
         <v>3</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E56" s="6">
         <v>563348</v>
@@ -5360,31 +5360,31 @@
       </c>
       <c r="U56" s="8"/>
       <c r="V56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W56" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W56" s="6" t="s">
+      <c r="X56" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X56" s="6" t="s">
+      <c r="Y56" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y56" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z56" s="6"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="C57" s="6">
         <v>3</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E57" s="6">
         <v>563348</v>
@@ -5434,31 +5434,31 @@
       </c>
       <c r="U57" s="8"/>
       <c r="V57" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W57" s="6" t="s">
+      <c r="X57" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X57" s="6" t="s">
+      <c r="Y57" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y57" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z57" s="6"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="C58" s="6">
         <v>3</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E58" s="6">
         <v>563190</v>
@@ -5508,31 +5508,31 @@
       </c>
       <c r="U58" s="8"/>
       <c r="V58" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W58" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W58" s="6" t="s">
+      <c r="X58" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X58" s="6" t="s">
+      <c r="Y58" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y58" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z58" s="6"/>
     </row>
     <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="C59" s="6">
         <v>3</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E59" s="6">
         <v>563674</v>
@@ -5582,31 +5582,31 @@
       </c>
       <c r="U59" s="8"/>
       <c r="V59" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W59" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W59" s="6" t="s">
+      <c r="X59" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X59" s="6" t="s">
+      <c r="Y59" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y59" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z59" s="6"/>
     </row>
     <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="C60" s="6">
         <v>3</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E60" s="6">
         <v>563843</v>
@@ -5656,31 +5656,31 @@
       </c>
       <c r="U60" s="8"/>
       <c r="V60" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W60" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W60" s="6" t="s">
+      <c r="X60" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X60" s="6" t="s">
+      <c r="Y60" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y60" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z60" s="6"/>
     </row>
     <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="C61" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E61" s="6">
         <v>563630</v>
@@ -5730,31 +5730,31 @@
       </c>
       <c r="U61" s="8"/>
       <c r="V61" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W61" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W61" s="6" t="s">
+      <c r="X61" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X61" s="6" t="s">
+      <c r="Y61" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y61" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z61" s="6"/>
     </row>
     <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="C62" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="D62" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E62" s="6">
         <v>563846</v>
@@ -5800,31 +5800,31 @@
       <c r="T62" s="8"/>
       <c r="U62" s="8"/>
       <c r="V62" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="W62" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="W62" s="6" t="s">
+      <c r="X62" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="X62" s="6" t="s">
+      <c r="Y62" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="Y62" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="Z62" s="6"/>
     </row>
     <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="C63" s="6">
         <v>3</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E63" s="6">
         <v>563682</v>
@@ -5876,31 +5876,31 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="V63" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W63" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="W63" s="6" t="s">
+      <c r="X63" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="X63" s="6" t="s">
+      <c r="Y63" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="Y63" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Z63" s="6"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="C64" s="6">
         <v>3</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E64" s="6">
         <v>563750</v>
@@ -5952,31 +5952,31 @@
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="V64" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W64" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="X64" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="X64" s="6" t="s">
+      <c r="Y64" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="Y64" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="Z64" s="6"/>
     </row>
     <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="C65" s="6">
         <v>3</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E65" s="6">
         <v>563401</v>
@@ -6026,31 +6026,31 @@
       </c>
       <c r="U65" s="8"/>
       <c r="V65" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W65" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="W65" s="6" t="s">
+      <c r="X65" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="X65" s="6" t="s">
+      <c r="Y65" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="Y65" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Z65" s="6"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="C66" s="6">
         <v>3</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E66" s="6">
         <v>563401</v>
@@ -6100,31 +6100,31 @@
       </c>
       <c r="U66" s="8"/>
       <c r="V66" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W66" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="W66" s="6" t="s">
+      <c r="X66" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="X66" s="6" t="s">
+      <c r="Y66" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="Y66" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Z66" s="6"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="C67" s="6">
         <v>3</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E67" s="6">
         <v>563401</v>
@@ -6174,31 +6174,31 @@
       </c>
       <c r="U67" s="8"/>
       <c r="V67" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W67" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="W67" s="6" t="s">
+      <c r="X67" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="X67" s="6" t="s">
+      <c r="Y67" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="Y67" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Z67" s="6"/>
     </row>
     <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="C68" s="6">
         <v>3</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E68" s="6">
         <v>563401</v>
@@ -6248,31 +6248,31 @@
       </c>
       <c r="U68" s="8"/>
       <c r="V68" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W68" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="W68" s="6" t="s">
+      <c r="X68" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="X68" s="6" t="s">
+      <c r="Y68" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="Y68" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Z68" s="6"/>
     </row>
     <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="C69" s="6">
         <v>3</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E69" s="6">
         <v>563401</v>
@@ -6322,31 +6322,31 @@
       </c>
       <c r="U69" s="8"/>
       <c r="V69" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W69" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="W69" s="6" t="s">
+      <c r="X69" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="X69" s="6" t="s">
+      <c r="Y69" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="Y69" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Z69" s="6"/>
     </row>
     <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="C70" s="6">
         <v>3</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E70" s="6">
         <v>563401</v>
@@ -6396,31 +6396,31 @@
       </c>
       <c r="U70" s="8"/>
       <c r="V70" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W70" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="W70" s="6" t="s">
+      <c r="X70" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="X70" s="6" t="s">
+      <c r="Y70" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="Y70" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Z70" s="6"/>
     </row>
     <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="C71" s="6">
         <v>3</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E71" s="6">
         <v>563926</v>
@@ -6472,31 +6472,31 @@
         <v>12.04</v>
       </c>
       <c r="V71" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W71" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="X71" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="X71" s="6" t="s">
+      <c r="Y71" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="Y71" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="Z71" s="6"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="C72" s="6">
         <v>3</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E72" s="6">
         <v>563493</v>
@@ -6548,31 +6548,31 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="V72" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W72" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="X72" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="X72" s="6" t="s">
+      <c r="Y72" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="Y72" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="Z72" s="6"/>
     </row>
     <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="C73" s="6">
         <v>3</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E73" s="6">
         <v>563775</v>
@@ -6624,31 +6624,31 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="V73" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W73" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="X73" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="X73" s="6" t="s">
+      <c r="Y73" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="Y73" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="Z73" s="6"/>
     </row>
     <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="C74" s="6">
         <v>3</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E74" s="6">
         <v>563532</v>
@@ -6700,31 +6700,31 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V74" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W74" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="X74" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="X74" s="6" t="s">
+      <c r="Y74" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="Y74" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="Z74" s="6"/>
     </row>
     <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="C75" s="6">
         <v>3</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E75" s="6">
         <v>563532</v>
@@ -6776,31 +6776,31 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V75" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W75" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="X75" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="X75" s="6" t="s">
+      <c r="Y75" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="Y75" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="Z75" s="6"/>
     </row>
     <row r="76" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="C76" s="6">
         <v>3</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E76" s="6">
         <v>563535</v>
@@ -6852,31 +6852,31 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V76" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W76" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="X76" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="X76" s="6" t="s">
+      <c r="Y76" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="Y76" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="Z76" s="6"/>
     </row>
     <row r="77" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="C77" s="6">
         <v>3</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E77" s="6">
         <v>563534</v>
@@ -6928,31 +6928,31 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V77" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W77" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="X77" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="X77" s="6" t="s">
+      <c r="Y77" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="Y77" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="Z77" s="6"/>
     </row>
     <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="C78" s="6">
         <v>3</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E78" s="6">
         <v>563532</v>
@@ -7004,31 +7004,31 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V78" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W78" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="X78" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="X78" s="6" t="s">
+      <c r="Y78" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="Y78" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="Z78" s="6"/>
     </row>
     <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="C79" s="6">
         <v>3</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E79" s="6">
         <v>563536</v>
@@ -7080,31 +7080,31 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V79" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W79" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="X79" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="X79" s="6" t="s">
+      <c r="Y79" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="Y79" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="Z79" s="6"/>
     </row>
     <row r="80" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="C80" s="6">
         <v>3</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E80" s="6">
         <v>563536</v>
@@ -7156,31 +7156,31 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V80" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W80" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="X80" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="X80" s="6" t="s">
+      <c r="Y80" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="Y80" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="Z80" s="6"/>
     </row>
     <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="C81" s="6">
         <v>3</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E81" s="6">
         <v>563536</v>
@@ -7232,31 +7232,31 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V81" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W81" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="X81" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="X81" s="6" t="s">
+      <c r="Y81" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="Y81" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="Z81" s="6"/>
     </row>
     <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="C82" s="6">
         <v>3</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E82" s="6">
         <v>563538</v>
@@ -7308,31 +7308,31 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V82" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W82" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="X82" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="X82" s="6" t="s">
+      <c r="Y82" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="Y82" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="Z82" s="6"/>
     </row>
     <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="C83" s="6">
         <v>3</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E83" s="6">
         <v>563537</v>
@@ -7384,31 +7384,31 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V83" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W83" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="X83" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="X83" s="6" t="s">
+      <c r="Y83" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="Y83" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="Z83" s="6"/>
     </row>
     <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="C84" s="6">
         <v>3</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E84" s="6">
         <v>563457</v>
@@ -7458,31 +7458,31 @@
       </c>
       <c r="U84" s="8"/>
       <c r="V84" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W84" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W84" s="6" t="s">
+      <c r="X84" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="X84" s="6" t="s">
+      <c r="Y84" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="Y84" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="Z84" s="6"/>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="C85" s="6">
         <v>3</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E85" s="6">
         <v>563456</v>
@@ -7532,31 +7532,31 @@
       </c>
       <c r="U85" s="8"/>
       <c r="V85" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W85" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W85" s="6" t="s">
+      <c r="X85" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="X85" s="6" t="s">
+      <c r="Y85" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="Y85" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="Z85" s="6"/>
     </row>
     <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B86" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="C86" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E86" s="6">
         <v>562999</v>
@@ -7606,31 +7606,31 @@
       </c>
       <c r="U86" s="8"/>
       <c r="V86" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W86" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W86" s="6" t="s">
+      <c r="X86" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X86" s="6" t="s">
+      <c r="Y86" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y86" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z86" s="6"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="C87" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E87" s="6">
         <v>563080</v>
@@ -7680,31 +7680,31 @@
       </c>
       <c r="U87" s="8"/>
       <c r="V87" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W87" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W87" s="6" t="s">
+      <c r="X87" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X87" s="6" t="s">
+      <c r="Y87" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y87" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z87" s="6"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="C88" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E88" s="6">
         <v>563341</v>
@@ -7754,31 +7754,31 @@
       </c>
       <c r="U88" s="8"/>
       <c r="V88" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W88" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W88" s="6" t="s">
+      <c r="X88" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X88" s="6" t="s">
+      <c r="Y88" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y88" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z88" s="6"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="C89" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E89" s="6">
         <v>563548</v>
@@ -7828,31 +7828,31 @@
       </c>
       <c r="U89" s="8"/>
       <c r="V89" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W89" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W89" s="6" t="s">
+      <c r="X89" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X89" s="6" t="s">
+      <c r="Y89" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y89" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z89" s="6"/>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="C90" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E90" s="6">
         <v>563188</v>
@@ -7902,31 +7902,31 @@
       </c>
       <c r="U90" s="8"/>
       <c r="V90" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W90" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W90" s="6" t="s">
+      <c r="X90" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X90" s="6" t="s">
+      <c r="Y90" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y90" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z90" s="6"/>
     </row>
     <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B91" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="C91" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E91" s="6">
         <v>563638</v>
@@ -7976,31 +7976,31 @@
       </c>
       <c r="U91" s="8"/>
       <c r="V91" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W91" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W91" s="6" t="s">
+      <c r="X91" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X91" s="6" t="s">
+      <c r="Y91" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y91" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z91" s="6"/>
     </row>
     <row r="92" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="C92" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E92" s="6">
         <v>563408</v>
@@ -8050,31 +8050,31 @@
       </c>
       <c r="U92" s="8"/>
       <c r="V92" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W92" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W92" s="6" t="s">
+      <c r="X92" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X92" s="6" t="s">
+      <c r="Y92" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y92" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z92" s="6"/>
     </row>
     <row r="93" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="C93" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E93" s="6">
         <v>563509</v>
@@ -8124,31 +8124,31 @@
       </c>
       <c r="U93" s="8"/>
       <c r="V93" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W93" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W93" s="6" t="s">
+      <c r="X93" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X93" s="6" t="s">
+      <c r="Y93" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y93" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z93" s="6"/>
     </row>
     <row r="94" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="C94" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E94" s="6">
         <v>563582</v>
@@ -8198,31 +8198,31 @@
       </c>
       <c r="U94" s="8"/>
       <c r="V94" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W94" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W94" s="6" t="s">
+      <c r="X94" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X94" s="6" t="s">
+      <c r="Y94" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y94" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z94" s="6"/>
     </row>
     <row r="95" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="C95" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E95" s="6">
         <v>563643</v>
@@ -8272,31 +8272,31 @@
       </c>
       <c r="U95" s="8"/>
       <c r="V95" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W95" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W95" s="6" t="s">
+      <c r="X95" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X95" s="6" t="s">
+      <c r="Y95" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y95" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z95" s="6"/>
     </row>
     <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="C96" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E96" s="6">
         <v>563000</v>
@@ -8346,31 +8346,31 @@
       </c>
       <c r="U96" s="8"/>
       <c r="V96" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W96" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W96" s="6" t="s">
+      <c r="X96" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X96" s="6" t="s">
+      <c r="Y96" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y96" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z96" s="6"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="C97" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E97" s="6">
         <v>563079</v>
@@ -8420,31 +8420,31 @@
       </c>
       <c r="U97" s="8"/>
       <c r="V97" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W97" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W97" s="6" t="s">
+      <c r="X97" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X97" s="6" t="s">
+      <c r="Y97" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y97" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z97" s="6"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B98" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="C98" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E98" s="6">
         <v>563346</v>
@@ -8494,31 +8494,31 @@
       </c>
       <c r="U98" s="8"/>
       <c r="V98" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W98" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W98" s="6" t="s">
+      <c r="X98" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X98" s="6" t="s">
+      <c r="Y98" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y98" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z98" s="6"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="C99" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E99" s="6">
         <v>563318</v>
@@ -8568,31 +8568,31 @@
       </c>
       <c r="U99" s="8"/>
       <c r="V99" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W99" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W99" s="6" t="s">
+      <c r="X99" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X99" s="6" t="s">
+      <c r="Y99" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y99" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z99" s="6"/>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="C100" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E100" s="6">
         <v>563189</v>
@@ -8642,31 +8642,31 @@
       </c>
       <c r="U100" s="8"/>
       <c r="V100" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W100" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W100" s="6" t="s">
+      <c r="X100" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X100" s="6" t="s">
+      <c r="Y100" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y100" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z100" s="6"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="C101" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E101" s="6">
         <v>563641</v>
@@ -8716,31 +8716,31 @@
       </c>
       <c r="U101" s="8"/>
       <c r="V101" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W101" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W101" s="6" t="s">
+      <c r="X101" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X101" s="6" t="s">
+      <c r="Y101" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y101" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z101" s="6"/>
     </row>
     <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="C102" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E102" s="6">
         <v>563635</v>
@@ -8790,31 +8790,31 @@
       </c>
       <c r="U102" s="8"/>
       <c r="V102" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W102" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W102" s="6" t="s">
+      <c r="X102" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X102" s="6" t="s">
+      <c r="Y102" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y102" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z102" s="6"/>
     </row>
     <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="C103" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E103" s="6">
         <v>563409</v>
@@ -8864,31 +8864,31 @@
       </c>
       <c r="U103" s="8"/>
       <c r="V103" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W103" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W103" s="6" t="s">
+      <c r="X103" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X103" s="6" t="s">
+      <c r="Y103" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y103" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z103" s="6"/>
     </row>
     <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="C104" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E104" s="6">
         <v>563510</v>
@@ -8938,31 +8938,31 @@
       </c>
       <c r="U104" s="8"/>
       <c r="V104" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W104" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W104" s="6" t="s">
+      <c r="X104" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X104" s="6" t="s">
+      <c r="Y104" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y104" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z104" s="6"/>
     </row>
     <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="C105" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E105" s="6">
         <v>563602</v>
@@ -9012,31 +9012,31 @@
       </c>
       <c r="U105" s="8"/>
       <c r="V105" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W105" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W105" s="6" t="s">
+      <c r="X105" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X105" s="6" t="s">
+      <c r="Y105" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y105" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z105" s="6"/>
     </row>
     <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="C106" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E106" s="6">
         <v>563636</v>
@@ -9086,31 +9086,31 @@
       </c>
       <c r="U106" s="8"/>
       <c r="V106" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W106" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W106" s="6" t="s">
+      <c r="X106" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X106" s="6" t="s">
+      <c r="Y106" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y106" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z106" s="6"/>
     </row>
     <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="C107" s="6">
         <v>3</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E107" s="6">
         <v>563198</v>
@@ -9160,31 +9160,31 @@
       </c>
       <c r="U107" s="8"/>
       <c r="V107" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W107" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W107" s="6" t="s">
+      <c r="X107" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="X107" s="6" t="s">
+      <c r="Y107" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="Y107" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="Z107" s="6"/>
     </row>
     <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="C108" s="6">
         <v>3</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E108" s="6">
         <v>563191</v>
@@ -9234,31 +9234,31 @@
       </c>
       <c r="U108" s="8"/>
       <c r="V108" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W108" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W108" s="6" t="s">
+      <c r="X108" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X108" s="6" t="s">
+      <c r="Y108" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y108" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z108" s="6"/>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="C109" s="6">
         <v>3</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E109" s="6">
         <v>563193</v>
@@ -9308,31 +9308,31 @@
       </c>
       <c r="U109" s="8"/>
       <c r="V109" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W109" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W109" s="6" t="s">
+      <c r="X109" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X109" s="6" t="s">
+      <c r="Y109" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y109" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z109" s="6"/>
     </row>
     <row r="110" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="C110" s="6">
         <v>3</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E110" s="6">
         <v>563132</v>
@@ -9382,31 +9382,31 @@
       </c>
       <c r="U110" s="8"/>
       <c r="V110" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W110" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W110" s="6" t="s">
+      <c r="X110" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X110" s="6" t="s">
+      <c r="Y110" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y110" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z110" s="6"/>
     </row>
     <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="C111" s="6">
         <v>3</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E111" s="6">
         <v>563272</v>
@@ -9456,31 +9456,31 @@
       </c>
       <c r="U111" s="8"/>
       <c r="V111" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W111" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W111" s="6" t="s">
+      <c r="X111" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X111" s="6" t="s">
+      <c r="Y111" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y111" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z111" s="6"/>
     </row>
     <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="C112" s="6">
         <v>3</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E112" s="6">
         <v>563583</v>
@@ -9530,31 +9530,31 @@
       </c>
       <c r="U112" s="8"/>
       <c r="V112" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W112" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W112" s="6" t="s">
+      <c r="X112" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X112" s="6" t="s">
+      <c r="Y112" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y112" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z112" s="6"/>
     </row>
     <row r="113" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="C113" s="6">
         <v>3</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E113" s="6">
         <v>563755</v>
@@ -9604,31 +9604,31 @@
       </c>
       <c r="U113" s="8"/>
       <c r="V113" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W113" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W113" s="6" t="s">
+      <c r="X113" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X113" s="6" t="s">
+      <c r="Y113" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y113" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z113" s="6"/>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="C114" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C114" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="D114" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E114" s="6">
         <v>563274</v>
@@ -9674,31 +9674,31 @@
       <c r="T114" s="8"/>
       <c r="U114" s="8"/>
       <c r="V114" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W114" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W114" s="6" t="s">
+      <c r="X114" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X114" s="6" t="s">
+      <c r="Y114" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y114" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z114" s="6"/>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="C115" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C115" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="D115" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E115" s="6">
         <v>562963</v>
@@ -9744,31 +9744,31 @@
       <c r="T115" s="8"/>
       <c r="U115" s="8"/>
       <c r="V115" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W115" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W115" s="6" t="s">
+      <c r="X115" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X115" s="6" t="s">
+      <c r="Y115" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y115" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z115" s="6"/>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="C116" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="D116" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E116" s="6">
         <v>562986</v>
@@ -9814,31 +9814,31 @@
       <c r="T116" s="8"/>
       <c r="U116" s="8"/>
       <c r="V116" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W116" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W116" s="6" t="s">
+      <c r="X116" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X116" s="6" t="s">
+      <c r="Y116" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y116" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z116" s="6"/>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="C117" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="D117" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E117" s="6">
         <v>562964</v>
@@ -9884,31 +9884,31 @@
       <c r="T117" s="8"/>
       <c r="U117" s="8"/>
       <c r="V117" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W117" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W117" s="6" t="s">
+      <c r="X117" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X117" s="6" t="s">
+      <c r="Y117" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y117" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z117" s="6"/>
     </row>
     <row r="118" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="C118" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C118" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="D118" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E118" s="6">
         <v>563273</v>
@@ -9954,31 +9954,31 @@
       <c r="T118" s="8"/>
       <c r="U118" s="8"/>
       <c r="V118" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W118" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W118" s="6" t="s">
+      <c r="X118" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X118" s="6" t="s">
+      <c r="Y118" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y118" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z118" s="6"/>
     </row>
     <row r="119" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="C119" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C119" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="D119" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E119" s="6">
         <v>563315</v>
@@ -10024,31 +10024,31 @@
       <c r="T119" s="8"/>
       <c r="U119" s="8"/>
       <c r="V119" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W119" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W119" s="6" t="s">
+      <c r="X119" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X119" s="6" t="s">
+      <c r="Y119" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y119" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z119" s="6"/>
     </row>
     <row r="120" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="C120" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="D120" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E120" s="6">
         <v>563285</v>
@@ -10094,31 +10094,31 @@
       <c r="T120" s="8"/>
       <c r="U120" s="8"/>
       <c r="V120" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W120" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W120" s="6" t="s">
+      <c r="X120" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X120" s="6" t="s">
+      <c r="Y120" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y120" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z120" s="6"/>
     </row>
     <row r="121" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="C121" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C121" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="D121" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E121" s="6">
         <v>563513</v>
@@ -10164,31 +10164,31 @@
       <c r="T121" s="8"/>
       <c r="U121" s="8"/>
       <c r="V121" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W121" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W121" s="6" t="s">
+      <c r="X121" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X121" s="6" t="s">
+      <c r="Y121" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y121" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z121" s="6"/>
     </row>
     <row r="122" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="C122" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="D122" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E122" s="6">
         <v>563514</v>
@@ -10234,31 +10234,31 @@
       <c r="T122" s="8"/>
       <c r="U122" s="8"/>
       <c r="V122" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W122" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W122" s="6" t="s">
+      <c r="X122" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X122" s="6" t="s">
+      <c r="Y122" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y122" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z122" s="6"/>
     </row>
     <row r="123" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B123" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C123" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C123" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="D123" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E123" s="6">
         <v>563719</v>
@@ -10304,29 +10304,29 @@
       <c r="T123" s="8"/>
       <c r="U123" s="8"/>
       <c r="V123" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W123" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="X123" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="X123" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="Y123" s="6"/>
       <c r="Z123" s="6"/>
     </row>
     <row r="124" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B124" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="D124" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E124" s="6">
         <v>563756</v>
@@ -10372,29 +10372,29 @@
       <c r="T124" s="8"/>
       <c r="U124" s="8"/>
       <c r="V124" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W124" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="X124" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="X124" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="Y124" s="6"/>
       <c r="Z124" s="6"/>
     </row>
     <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B125" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C125" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C125" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="D125" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E125" s="6">
         <v>563757</v>
@@ -10440,31 +10440,31 @@
       <c r="T125" s="8"/>
       <c r="U125" s="8"/>
       <c r="V125" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W125" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="X125" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="X125" s="6" t="s">
+      <c r="Y125" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="Y125" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="Z125" s="6"/>
     </row>
     <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B126" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="D126" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E126" s="6">
         <v>563320</v>
@@ -10510,29 +10510,29 @@
       <c r="T126" s="8"/>
       <c r="U126" s="8"/>
       <c r="V126" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W126" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W126" s="6" t="s">
+      <c r="X126" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X126" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y126" s="6"/>
       <c r="Z126" s="6"/>
     </row>
     <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B127" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C127" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="D127" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E127" s="6">
         <v>560582</v>
@@ -10578,31 +10578,31 @@
       <c r="T127" s="8"/>
       <c r="U127" s="8"/>
       <c r="V127" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W127" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W127" s="6" t="s">
+      <c r="X127" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X127" s="6" t="s">
+      <c r="Y127" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y127" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z127" s="6"/>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B128" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C128" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="D128" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E128" s="6">
         <v>563659</v>
@@ -10648,31 +10648,31 @@
       <c r="T128" s="8"/>
       <c r="U128" s="8"/>
       <c r="V128" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W128" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W128" s="6" t="s">
+      <c r="X128" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X128" s="6" t="s">
+      <c r="Y128" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y128" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z128" s="6"/>
     </row>
     <row r="129" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B129" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C129" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="D129" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E129" s="6">
         <v>563980</v>
@@ -10718,31 +10718,31 @@
       <c r="T129" s="8"/>
       <c r="U129" s="8"/>
       <c r="V129" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W129" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W129" s="6" t="s">
+      <c r="X129" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X129" s="6" t="s">
+      <c r="Y129" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y129" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z129" s="6"/>
     </row>
     <row r="130" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="C130" s="6">
         <v>3</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E130" s="6">
         <v>563829</v>
@@ -10792,31 +10792,31 @@
       </c>
       <c r="U130" s="8"/>
       <c r="V130" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W130" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W130" s="6" t="s">
+      <c r="X130" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="X130" s="6" t="s">
+      <c r="Y130" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="Y130" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="Z130" s="6"/>
     </row>
     <row r="131" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="C131" s="6">
         <v>3</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E131" s="6">
         <v>563830</v>
@@ -10866,31 +10866,31 @@
       </c>
       <c r="U131" s="8"/>
       <c r="V131" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W131" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="W131" s="6" t="s">
+      <c r="X131" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="X131" s="6" t="s">
+      <c r="Y131" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="Y131" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="Z131" s="6"/>
     </row>
     <row r="132" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="C132" s="6">
         <v>3</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E132" s="6">
         <v>562771</v>
@@ -10942,31 +10942,31 @@
         <v>0</v>
       </c>
       <c r="V132" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W132" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="X132" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="X132" s="6" t="s">
+      <c r="Y132" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="Y132" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="Z132" s="6"/>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>204</v>
       </c>
       <c r="C133" s="6">
         <v>3</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E133" s="6">
         <v>563218</v>
@@ -11016,29 +11016,29 @@
       </c>
       <c r="U133" s="8"/>
       <c r="V133" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W133" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W133" s="6" t="s">
+      <c r="X133" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X133" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y133" s="6"/>
       <c r="Z133" s="6"/>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>204</v>
       </c>
       <c r="C134" s="6">
         <v>3</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E134" s="6">
         <v>563324</v>
@@ -11088,29 +11088,29 @@
       </c>
       <c r="U134" s="8"/>
       <c r="V134" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W134" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W134" s="6" t="s">
+      <c r="X134" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X134" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y134" s="6"/>
       <c r="Z134" s="6"/>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="C135" s="6">
         <v>3</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E135" s="6">
         <v>563216</v>
@@ -11160,29 +11160,29 @@
       </c>
       <c r="U135" s="8"/>
       <c r="V135" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W135" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W135" s="6" t="s">
+      <c r="X135" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X135" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y135" s="6"/>
       <c r="Z135" s="6"/>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="C136" s="6">
         <v>3</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E136" s="6">
         <v>563317</v>
@@ -11232,29 +11232,29 @@
       </c>
       <c r="U136" s="8"/>
       <c r="V136" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W136" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W136" s="6" t="s">
+      <c r="X136" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X136" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y136" s="6"/>
       <c r="Z136" s="6"/>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="C137" s="6">
         <v>3</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E137" s="6">
         <v>563111</v>
@@ -11304,29 +11304,29 @@
       </c>
       <c r="U137" s="8"/>
       <c r="V137" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W137" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W137" s="6" t="s">
+      <c r="X137" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X137" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y137" s="6"/>
       <c r="Z137" s="6"/>
     </row>
     <row r="138" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="C138" s="6">
         <v>3</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E138" s="6">
         <v>563323</v>
@@ -11376,29 +11376,29 @@
       </c>
       <c r="U138" s="8"/>
       <c r="V138" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W138" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W138" s="6" t="s">
+      <c r="X138" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X138" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y138" s="6"/>
       <c r="Z138" s="6"/>
     </row>
     <row r="139" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="C139" s="6">
         <v>3</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E139" s="6">
         <v>563711</v>
@@ -11448,31 +11448,31 @@
       </c>
       <c r="U139" s="8"/>
       <c r="V139" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W139" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X139" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X139" s="6" t="s">
+      <c r="Y139" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y139" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z139" s="6"/>
     </row>
     <row r="140" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="C140" s="6">
         <v>3</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E140" s="6">
         <v>563979</v>
@@ -11522,29 +11522,29 @@
       </c>
       <c r="U140" s="8"/>
       <c r="V140" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W140" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W140" s="6" t="s">
+      <c r="X140" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X140" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y140" s="6"/>
       <c r="Z140" s="6"/>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="C141" s="6">
         <v>3</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E141" s="6">
         <v>563078</v>
@@ -11594,29 +11594,29 @@
       </c>
       <c r="U141" s="8"/>
       <c r="V141" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W141" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W141" s="6" t="s">
+      <c r="X141" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X141" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y141" s="6"/>
       <c r="Z141" s="6"/>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="C142" s="6">
         <v>3</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E142" s="6">
         <v>563217</v>
@@ -11666,29 +11666,29 @@
       </c>
       <c r="U142" s="8"/>
       <c r="V142" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W142" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W142" s="6" t="s">
+      <c r="X142" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X142" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y142" s="6"/>
       <c r="Z142" s="6"/>
     </row>
     <row r="143" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="C143" s="6">
         <v>3</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E143" s="6">
         <v>563316</v>
@@ -11738,29 +11738,29 @@
       </c>
       <c r="U143" s="8"/>
       <c r="V143" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W143" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W143" s="6" t="s">
+      <c r="X143" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X143" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y143" s="6"/>
       <c r="Z143" s="6"/>
     </row>
     <row r="144" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="C144" s="6">
         <v>3</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E144" s="6">
         <v>562796</v>
@@ -11812,31 +11812,31 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V144" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W144" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="W144" s="6" t="s">
+      <c r="X144" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="X144" s="6" t="s">
+      <c r="Y144" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="Y144" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Z144" s="6"/>
     </row>
     <row r="145" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="C145" s="6">
         <v>3</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E145" s="6">
         <v>562796</v>
@@ -11888,31 +11888,31 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V145" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W145" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="W145" s="6" t="s">
+      <c r="X145" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="X145" s="6" t="s">
+      <c r="Y145" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="Y145" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Z145" s="6"/>
     </row>
     <row r="146" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="C146" s="6">
         <v>3</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E146" s="6">
         <v>562796</v>
@@ -11964,31 +11964,31 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V146" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W146" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="W146" s="6" t="s">
+      <c r="X146" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="X146" s="6" t="s">
+      <c r="Y146" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="Y146" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Z146" s="6"/>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="C147" s="6">
         <v>3</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E147" s="6">
         <v>562796</v>
@@ -12040,31 +12040,31 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V147" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W147" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="W147" s="6" t="s">
+      <c r="X147" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="X147" s="6" t="s">
+      <c r="Y147" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="Y147" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Z147" s="6"/>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="C148" s="6">
         <v>3</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E148" s="6">
         <v>562796</v>
@@ -12116,31 +12116,31 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V148" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W148" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="W148" s="6" t="s">
+      <c r="X148" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="X148" s="6" t="s">
+      <c r="Y148" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="Y148" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Z148" s="6"/>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="C149" s="6">
         <v>3</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E149" s="6">
         <v>562796</v>
@@ -12192,31 +12192,31 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V149" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W149" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="W149" s="6" t="s">
+      <c r="X149" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="X149" s="6" t="s">
+      <c r="Y149" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="Y149" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Z149" s="6"/>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="C150" s="6">
         <v>3</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E150" s="6">
         <v>562796</v>
@@ -12268,31 +12268,31 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V150" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W150" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="W150" s="6" t="s">
+      <c r="X150" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="X150" s="6" t="s">
+      <c r="Y150" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="Y150" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Z150" s="6"/>
     </row>
     <row r="151" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="C151" s="6">
         <v>3</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E151" s="6">
         <v>562518</v>
@@ -12344,31 +12344,31 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V151" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W151" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="X151" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="X151" s="6" t="s">
+      <c r="Y151" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="Y151" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="Z151" s="6"/>
     </row>
     <row r="152" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B152" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="C152" s="6">
         <v>3</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E152" s="6">
         <v>562518</v>
@@ -12420,31 +12420,31 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V152" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W152" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="X152" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="X152" s="6" t="s">
+      <c r="Y152" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="Y152" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="Z152" s="6"/>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="C153" s="6">
         <v>3</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E153" s="6">
         <v>562518</v>
@@ -12496,31 +12496,31 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V153" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W153" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="X153" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="X153" s="6" t="s">
+      <c r="Y153" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="Y153" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="Z153" s="6"/>
     </row>
     <row r="154" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B154" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="C154" s="6">
         <v>3</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E154" s="6">
         <v>562518</v>
@@ -12572,31 +12572,31 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V154" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W154" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="X154" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="X154" s="6" t="s">
+      <c r="Y154" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="Y154" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="Z154" s="6"/>
     </row>
     <row r="155" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="C155" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C155" s="6" t="s">
-        <v>220</v>
-      </c>
       <c r="D155" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E155" s="6">
         <v>563846</v>
@@ -12646,31 +12646,31 @@
       </c>
       <c r="U155" s="8"/>
       <c r="V155" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="W155" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="W155" s="6" t="s">
+      <c r="X155" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="X155" s="6" t="s">
+      <c r="Y155" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="Y155" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="Z155" s="6"/>
     </row>
     <row r="156" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B156" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="C156" s="6">
         <v>3</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E156" s="6">
         <v>562696</v>
@@ -12722,31 +12722,31 @@
         <v>0</v>
       </c>
       <c r="V156" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W156" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="W156" s="6" t="s">
+      <c r="X156" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="X156" s="6" t="s">
+      <c r="Y156" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="Y156" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Z156" s="6"/>
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="C157" s="6">
         <v>3</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E157" s="6">
         <v>562696</v>
@@ -12798,31 +12798,31 @@
         <v>0</v>
       </c>
       <c r="V157" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W157" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="W157" s="6" t="s">
+      <c r="X157" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="X157" s="6" t="s">
+      <c r="Y157" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="Y157" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Z157" s="6"/>
     </row>
     <row r="158" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B158" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="C158" s="6">
         <v>3</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E158" s="6">
         <v>563811</v>
@@ -12874,31 +12874,31 @@
         <v>0</v>
       </c>
       <c r="V158" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W158" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="X158" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="X158" s="6" t="s">
+      <c r="Y158" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="Y158" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="Z158" s="6"/>
     </row>
     <row r="159" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="C159" s="6">
         <v>3</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E159" s="6">
         <v>563811</v>
@@ -12950,31 +12950,31 @@
         <v>0</v>
       </c>
       <c r="V159" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W159" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="X159" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="X159" s="6" t="s">
+      <c r="Y159" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="Y159" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="Z159" s="6"/>
     </row>
     <row r="160" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="C160" s="6">
         <v>3</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E160" s="6">
         <v>563068</v>
@@ -13026,31 +13026,31 @@
         <v>0</v>
       </c>
       <c r="V160" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W160" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="X160" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="X160" s="6" t="s">
+      <c r="Y160" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="Y160" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="Z160" s="6"/>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B161" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="C161" s="6">
         <v>3</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E161" s="6">
         <v>562697</v>
@@ -13102,31 +13102,31 @@
         <v>0</v>
       </c>
       <c r="V161" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W161" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="W161" s="6" t="s">
+      <c r="X161" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="X161" s="6" t="s">
+      <c r="Y161" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="Y161" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Z161" s="6"/>
     </row>
     <row r="162" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="C162" s="6">
         <v>3</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E162" s="6">
         <v>563068</v>
@@ -13178,31 +13178,31 @@
         <v>0</v>
       </c>
       <c r="V162" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W162" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="X162" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="X162" s="6" t="s">
+      <c r="Y162" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="Y162" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="Z162" s="6"/>
     </row>
     <row r="163" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="C163" s="6">
         <v>3</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E163" s="6">
         <v>563068</v>
@@ -13254,31 +13254,31 @@
         <v>0</v>
       </c>
       <c r="V163" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W163" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="X163" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="X163" s="6" t="s">
+      <c r="Y163" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="Y163" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="Z163" s="6"/>
     </row>
     <row r="164" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="C164" s="6">
         <v>3</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E164" s="6">
         <v>563932</v>
@@ -13328,29 +13328,29 @@
       </c>
       <c r="U164" s="8"/>
       <c r="V164" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W164" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W164" s="6" t="s">
+      <c r="X164" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X164" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y164" s="6"/>
       <c r="Z164" s="6"/>
     </row>
     <row r="165" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="C165" s="6">
         <v>3</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E165" s="6">
         <v>563192</v>
@@ -13400,31 +13400,31 @@
       </c>
       <c r="U165" s="8"/>
       <c r="V165" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W165" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W165" s="6" t="s">
+      <c r="X165" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X165" s="6" t="s">
+      <c r="Y165" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y165" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z165" s="6"/>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="C166" s="6">
         <v>3</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E166" s="6">
         <v>563194</v>
@@ -13474,31 +13474,31 @@
       </c>
       <c r="U166" s="8"/>
       <c r="V166" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W166" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W166" s="6" t="s">
+      <c r="X166" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X166" s="6" t="s">
+      <c r="Y166" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y166" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z166" s="6"/>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B167" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="C167" s="6">
         <v>3</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E167" s="6">
         <v>563270</v>
@@ -13548,31 +13548,31 @@
       </c>
       <c r="U167" s="8"/>
       <c r="V167" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W167" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W167" s="6" t="s">
+      <c r="X167" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X167" s="6" t="s">
+      <c r="Y167" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y167" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z167" s="6"/>
     </row>
     <row r="168" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B168" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="C168" s="6">
         <v>3</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E168" s="6">
         <v>563321</v>
@@ -13622,31 +13622,31 @@
       </c>
       <c r="U168" s="8"/>
       <c r="V168" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W168" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W168" s="6" t="s">
+      <c r="X168" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X168" s="6" t="s">
+      <c r="Y168" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y168" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z168" s="6"/>
     </row>
     <row r="169" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B169" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="C169" s="6">
         <v>3</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E169" s="6">
         <v>563515</v>
@@ -13696,31 +13696,31 @@
       </c>
       <c r="U169" s="8"/>
       <c r="V169" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W169" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W169" s="6" t="s">
+      <c r="X169" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X169" s="6" t="s">
+      <c r="Y169" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y169" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z169" s="6"/>
     </row>
     <row r="170" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="C170" s="6">
         <v>3</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E170" s="6">
         <v>562654</v>
@@ -13772,31 +13772,31 @@
         <v>0</v>
       </c>
       <c r="V170" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W170" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="W170" s="6" t="s">
+      <c r="X170" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="X170" s="6" t="s">
+      <c r="Y170" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="Y170" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Z170" s="6"/>
     </row>
     <row r="171" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B171" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="C171" s="6">
         <v>3</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E171" s="6">
         <v>562520</v>
@@ -13848,31 +13848,31 @@
         <v>0</v>
       </c>
       <c r="V171" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W171" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="X171" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="X171" s="6" t="s">
+      <c r="Y171" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="Y171" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="Z171" s="6"/>
     </row>
     <row r="172" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="C172" s="6">
         <v>3</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E172" s="6">
         <v>562520</v>
@@ -13924,31 +13924,31 @@
         <v>0</v>
       </c>
       <c r="V172" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W172" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="X172" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="X172" s="6" t="s">
+      <c r="Y172" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="Y172" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="Z172" s="6"/>
     </row>
     <row r="173" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B173" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="C173" s="6">
         <v>3</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E173" s="6">
         <v>562520</v>
@@ -14000,31 +14000,31 @@
         <v>0</v>
       </c>
       <c r="V173" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W173" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="X173" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="X173" s="6" t="s">
+      <c r="Y173" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="Y173" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="Z173" s="6"/>
     </row>
     <row r="174" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B174" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="C174" s="6">
         <v>3</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E174" s="6">
         <v>562520</v>
@@ -14076,31 +14076,31 @@
         <v>0</v>
       </c>
       <c r="V174" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W174" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="X174" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="X174" s="6" t="s">
+      <c r="Y174" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="Y174" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="Z174" s="6"/>
     </row>
     <row r="175" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B175" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C175" s="6">
         <v>3</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E175" s="6">
         <v>563291</v>
@@ -14150,29 +14150,29 @@
       </c>
       <c r="U175" s="8"/>
       <c r="V175" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W175" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W175" s="6" t="s">
+      <c r="X175" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X175" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y175" s="6"/>
       <c r="Z175" s="6"/>
     </row>
     <row r="176" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B176" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C176" s="6">
         <v>3</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E176" s="6">
         <v>562155</v>
@@ -14222,31 +14222,31 @@
       </c>
       <c r="U176" s="8"/>
       <c r="V176" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W176" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X176" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X176" s="6" t="s">
+      <c r="Y176" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y176" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z176" s="6"/>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C177" s="6">
         <v>3</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E177" s="6">
         <v>562184</v>
@@ -14296,31 +14296,31 @@
       </c>
       <c r="U177" s="8"/>
       <c r="V177" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W177" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X177" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X177" s="6" t="s">
+      <c r="Y177" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y177" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z177" s="6"/>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B178" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C178" s="6">
         <v>3</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E178" s="6">
         <v>562192</v>
@@ -14370,31 +14370,31 @@
       </c>
       <c r="U178" s="8"/>
       <c r="V178" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W178" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X178" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X178" s="6" t="s">
+      <c r="Y178" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y178" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z178" s="6"/>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B179" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C179" s="6">
         <v>3</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E179" s="6">
         <v>563862</v>
@@ -14444,29 +14444,29 @@
       </c>
       <c r="U179" s="8"/>
       <c r="V179" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W179" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W179" s="6" t="s">
+      <c r="X179" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X179" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y179" s="6"/>
       <c r="Z179" s="6"/>
     </row>
     <row r="180" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B180" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C180" s="6">
         <v>3</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E180" s="6">
         <v>562186</v>
@@ -14516,31 +14516,31 @@
       </c>
       <c r="U180" s="8"/>
       <c r="V180" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W180" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X180" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X180" s="6" t="s">
+      <c r="Y180" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y180" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z180" s="6"/>
     </row>
     <row r="181" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B181" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C181" s="6">
         <v>3</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E181" s="6">
         <v>562248</v>
@@ -14590,31 +14590,31 @@
       </c>
       <c r="U181" s="8"/>
       <c r="V181" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W181" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X181" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X181" s="6" t="s">
+      <c r="Y181" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y181" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z181" s="6"/>
     </row>
     <row r="182" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B182" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C182" s="6">
         <v>3</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E182" s="6">
         <v>562310</v>
@@ -14664,31 +14664,31 @@
       </c>
       <c r="U182" s="8"/>
       <c r="V182" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W182" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X182" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X182" s="6" t="s">
+      <c r="Y182" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y182" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z182" s="6"/>
     </row>
     <row r="183" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B183" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C183" s="6">
         <v>3</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E183" s="6">
         <v>562359</v>
@@ -14738,31 +14738,31 @@
       </c>
       <c r="U183" s="8"/>
       <c r="V183" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W183" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X183" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X183" s="6" t="s">
+      <c r="Y183" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y183" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z183" s="6"/>
     </row>
     <row r="184" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B184" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C184" s="6">
         <v>3</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E184" s="6">
         <v>562402</v>
@@ -14812,31 +14812,31 @@
       </c>
       <c r="U184" s="8"/>
       <c r="V184" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W184" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X184" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X184" s="6" t="s">
+      <c r="Y184" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y184" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z184" s="6"/>
     </row>
     <row r="185" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B185" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C185" s="6">
         <v>3</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E185" s="6">
         <v>562510</v>
@@ -14886,31 +14886,31 @@
       </c>
       <c r="U185" s="8"/>
       <c r="V185" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W185" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X185" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X185" s="6" t="s">
+      <c r="Y185" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y185" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z185" s="6"/>
     </row>
     <row r="186" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B186" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C186" s="6">
         <v>3</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E186" s="6">
         <v>562583</v>
@@ -14960,31 +14960,31 @@
       </c>
       <c r="U186" s="8"/>
       <c r="V186" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W186" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X186" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X186" s="6" t="s">
+      <c r="Y186" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y186" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z186" s="6"/>
     </row>
     <row r="187" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C187" s="6">
         <v>3</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E187" s="6">
         <v>562860</v>
@@ -15034,31 +15034,31 @@
       </c>
       <c r="U187" s="8"/>
       <c r="V187" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W187" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X187" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X187" s="6" t="s">
+      <c r="Y187" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y187" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z187" s="6"/>
     </row>
     <row r="188" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C188" s="6">
         <v>3</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E188" s="6">
         <v>562709</v>
@@ -15108,31 +15108,31 @@
       </c>
       <c r="U188" s="8"/>
       <c r="V188" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W188" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X188" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X188" s="6" t="s">
+      <c r="Y188" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y188" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z188" s="6"/>
     </row>
     <row r="189" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B189" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C189" s="6">
         <v>3</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E189" s="6">
         <v>562918</v>
@@ -15182,31 +15182,31 @@
       </c>
       <c r="U189" s="8"/>
       <c r="V189" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W189" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X189" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X189" s="6" t="s">
+      <c r="Y189" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y189" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z189" s="6"/>
     </row>
     <row r="190" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B190" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C190" s="6">
         <v>3</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E190" s="6">
         <v>563911</v>
@@ -15256,31 +15256,31 @@
       </c>
       <c r="U190" s="8"/>
       <c r="V190" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W190" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X190" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X190" s="6" t="s">
+      <c r="Y190" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y190" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z190" s="6"/>
     </row>
     <row r="191" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B191" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C191" s="6">
         <v>3</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E191" s="6">
         <v>563238</v>
@@ -15330,31 +15330,31 @@
       </c>
       <c r="U191" s="8"/>
       <c r="V191" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W191" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X191" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X191" s="6" t="s">
+      <c r="Y191" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y191" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z191" s="6"/>
     </row>
     <row r="192" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B192" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C192" s="6">
         <v>3</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E192" s="6">
         <v>563039</v>
@@ -15404,31 +15404,31 @@
       </c>
       <c r="U192" s="8"/>
       <c r="V192" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W192" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X192" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X192" s="6" t="s">
+      <c r="Y192" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y192" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z192" s="6"/>
     </row>
     <row r="193" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B193" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C193" s="6">
         <v>3</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E193" s="6">
         <v>563319</v>
@@ -15478,31 +15478,31 @@
       </c>
       <c r="U193" s="8"/>
       <c r="V193" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W193" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X193" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X193" s="6" t="s">
+      <c r="Y193" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y193" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z193" s="6"/>
     </row>
     <row r="194" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B194" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C194" s="6">
         <v>3</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E194" s="6">
         <v>563414</v>
@@ -15552,31 +15552,31 @@
       </c>
       <c r="U194" s="8"/>
       <c r="V194" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W194" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X194" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X194" s="6" t="s">
+      <c r="Y194" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y194" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z194" s="6"/>
     </row>
     <row r="195" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B195" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C195" s="6">
         <v>3</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E195" s="6">
         <v>563413</v>
@@ -15626,31 +15626,31 @@
       </c>
       <c r="U195" s="8"/>
       <c r="V195" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W195" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X195" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X195" s="6" t="s">
+      <c r="Y195" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y195" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z195" s="6"/>
     </row>
     <row r="196" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B196" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C196" s="6">
         <v>3</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E196" s="6">
         <v>563584</v>
@@ -15700,31 +15700,31 @@
       </c>
       <c r="U196" s="8"/>
       <c r="V196" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W196" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X196" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X196" s="6" t="s">
+      <c r="Y196" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y196" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z196" s="6"/>
     </row>
     <row r="197" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B197" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C197" s="6">
         <v>3</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E197" s="6">
         <v>563653</v>
@@ -15774,31 +15774,31 @@
       </c>
       <c r="U197" s="8"/>
       <c r="V197" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W197" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X197" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X197" s="6" t="s">
+      <c r="Y197" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y197" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z197" s="6"/>
     </row>
     <row r="198" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B198" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="C198" s="6">
         <v>3</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E198" s="6">
         <v>562937</v>
@@ -15848,31 +15848,31 @@
       </c>
       <c r="U198" s="8"/>
       <c r="V198" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W198" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X198" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X198" s="6" t="s">
+      <c r="Y198" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y198" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z198" s="6"/>
     </row>
     <row r="199" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B199" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="C199" s="6">
         <v>3</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E199" s="6">
         <v>563020</v>
@@ -15922,31 +15922,31 @@
       </c>
       <c r="U199" s="8"/>
       <c r="V199" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W199" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X199" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X199" s="6" t="s">
+      <c r="Y199" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y199" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z199" s="6"/>
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B200" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="C200" s="6">
         <v>3</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E200" s="6">
         <v>563053</v>
@@ -15996,31 +15996,31 @@
       </c>
       <c r="U200" s="8"/>
       <c r="V200" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W200" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X200" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X200" s="6" t="s">
+      <c r="Y200" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y200" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z200" s="6"/>
     </row>
     <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B201" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="C201" s="6">
         <v>3</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E201" s="6">
         <v>563863</v>
@@ -16070,29 +16070,29 @@
       </c>
       <c r="U201" s="8"/>
       <c r="V201" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W201" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W201" s="6" t="s">
+      <c r="X201" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X201" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y201" s="6"/>
       <c r="Z201" s="6"/>
     </row>
     <row r="202" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B202" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="C202" s="6">
         <v>3</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E202" s="6">
         <v>563134</v>
@@ -16142,31 +16142,31 @@
       </c>
       <c r="U202" s="8"/>
       <c r="V202" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W202" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X202" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X202" s="6" t="s">
+      <c r="Y202" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y202" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z202" s="6"/>
     </row>
     <row r="203" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B203" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="C203" s="6">
         <v>3</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E203" s="6">
         <v>563201</v>
@@ -16216,31 +16216,31 @@
       </c>
       <c r="U203" s="8"/>
       <c r="V203" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W203" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X203" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X203" s="6" t="s">
+      <c r="Y203" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y203" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z203" s="6"/>
     </row>
     <row r="204" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B204" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="B204" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="C204" s="6">
         <v>3</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E204" s="6">
         <v>563292</v>
@@ -16290,31 +16290,31 @@
       </c>
       <c r="U204" s="8"/>
       <c r="V204" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W204" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X204" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X204" s="6" t="s">
+      <c r="Y204" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y204" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z204" s="6"/>
     </row>
     <row r="205" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B205" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="C205" s="6">
         <v>3</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E205" s="6">
         <v>563415</v>
@@ -16364,31 +16364,31 @@
       </c>
       <c r="U205" s="8"/>
       <c r="V205" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W205" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X205" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X205" s="6" t="s">
+      <c r="Y205" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y205" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z205" s="6"/>
     </row>
     <row r="206" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B206" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="B206" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="C206" s="6">
         <v>3</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E206" s="6">
         <v>563530</v>
@@ -16438,31 +16438,31 @@
       </c>
       <c r="U206" s="8"/>
       <c r="V206" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W206" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X206" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X206" s="6" t="s">
+      <c r="Y206" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y206" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z206" s="6"/>
     </row>
     <row r="207" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B207" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="C207" s="6">
         <v>3</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E207" s="6">
         <v>563581</v>
@@ -16512,31 +16512,31 @@
       </c>
       <c r="U207" s="8"/>
       <c r="V207" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W207" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="X207" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="X207" s="6" t="s">
+      <c r="Y207" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="Y207" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="Z207" s="6"/>
     </row>
     <row r="208" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B208" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="C208" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C208" s="6" t="s">
-        <v>239</v>
-      </c>
       <c r="D208" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E208" s="6">
         <v>563846</v>
@@ -16582,31 +16582,31 @@
       <c r="T208" s="8"/>
       <c r="U208" s="8"/>
       <c r="V208" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="W208" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="W208" s="6" t="s">
+      <c r="X208" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="X208" s="6" t="s">
+      <c r="Y208" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="Y208" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="Z208" s="6"/>
     </row>
     <row r="209" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B209" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="B209" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="C209" s="6">
         <v>3</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E209" s="6">
         <v>563893</v>
@@ -16656,29 +16656,29 @@
       </c>
       <c r="U209" s="8"/>
       <c r="V209" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W209" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="X209" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="X209" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="Y209" s="6"/>
       <c r="Z209" s="6"/>
     </row>
     <row r="210" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B210" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="B210" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="C210" s="6">
         <v>3</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E210" s="6">
         <v>563891</v>
@@ -16728,29 +16728,29 @@
       </c>
       <c r="U210" s="8"/>
       <c r="V210" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W210" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="X210" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="X210" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="Y210" s="6"/>
       <c r="Z210" s="6"/>
     </row>
     <row r="211" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B211" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="C211" s="6">
         <v>3</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E211" s="6">
         <v>563894</v>
@@ -16800,29 +16800,29 @@
       </c>
       <c r="U211" s="8"/>
       <c r="V211" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W211" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="X211" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="X211" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="Y211" s="6"/>
       <c r="Z211" s="6"/>
     </row>
     <row r="212" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B212" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="C212" s="6">
         <v>3</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E212" s="6">
         <v>563890</v>
@@ -16872,29 +16872,29 @@
       </c>
       <c r="U212" s="8"/>
       <c r="V212" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W212" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="X212" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="X212" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="Y212" s="6"/>
       <c r="Z212" s="6"/>
     </row>
     <row r="213" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B213" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="C213" s="6">
         <v>3</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E213" s="6">
         <v>563887</v>
@@ -16944,29 +16944,29 @@
       </c>
       <c r="U213" s="8"/>
       <c r="V213" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W213" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="X213" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="X213" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="Y213" s="6"/>
       <c r="Z213" s="6"/>
     </row>
     <row r="214" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="B214" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="C214" s="6">
         <v>3</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E214" s="6">
         <v>563886</v>
@@ -17016,29 +17016,29 @@
       </c>
       <c r="U214" s="8"/>
       <c r="V214" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W214" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="X214" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="X214" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="Y214" s="6"/>
       <c r="Z214" s="6"/>
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B215" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="C215" s="6">
         <v>3</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E215" s="6">
         <v>563010</v>
@@ -17088,31 +17088,31 @@
       </c>
       <c r="U215" s="8"/>
       <c r="V215" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W215" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="W215" s="6" t="s">
+      <c r="X215" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="X215" s="6" t="s">
+      <c r="Y215" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="Y215" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="Z215" s="6"/>
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B216" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="B216" s="6" t="s">
-        <v>247</v>
       </c>
       <c r="C216" s="6">
         <v>3</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E216" s="6">
         <v>563011</v>
@@ -17162,31 +17162,31 @@
       </c>
       <c r="U216" s="8"/>
       <c r="V216" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W216" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="W216" s="6" t="s">
+      <c r="X216" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="X216" s="6" t="s">
+      <c r="Y216" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="Y216" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="Z216" s="6"/>
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B217" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B217" s="6" t="s">
-        <v>249</v>
-      </c>
       <c r="C217" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E217" s="6">
         <v>563878</v>
@@ -17234,29 +17234,29 @@
       <c r="T217" s="8"/>
       <c r="U217" s="8"/>
       <c r="V217" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W217" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="X217" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="X217" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="Y217" s="6"/>
       <c r="Z217" s="6"/>
     </row>
     <row r="218" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B218" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B218" s="6" t="s">
-        <v>249</v>
-      </c>
       <c r="C218" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E218" s="6">
         <v>563878</v>
@@ -17304,29 +17304,29 @@
       <c r="T218" s="8"/>
       <c r="U218" s="8"/>
       <c r="V218" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W218" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="X218" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="X218" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="Y218" s="6"/>
       <c r="Z218" s="6"/>
     </row>
     <row r="219" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B219" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="C219" s="6">
         <v>3</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E219" s="6">
         <v>563874</v>
@@ -17376,29 +17376,29 @@
       </c>
       <c r="U219" s="8"/>
       <c r="V219" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W219" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="X219" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="X219" s="6" t="s">
-        <v>255</v>
       </c>
       <c r="Y219" s="6"/>
       <c r="Z219" s="6"/>
     </row>
     <row r="220" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B220" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B220" s="6" t="s">
+      <c r="C220" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C220" s="6" t="s">
-        <v>258</v>
-      </c>
       <c r="D220" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E220" s="6">
         <v>563504</v>
@@ -17448,31 +17448,31 @@
       </c>
       <c r="U220" s="8"/>
       <c r="V220" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="W220" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="W220" s="6" t="s">
+      <c r="X220" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="X220" s="6" t="s">
+      <c r="Y220" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="Y220" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="Z220" s="6"/>
     </row>
     <row r="221" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B221" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B221" s="6" t="s">
-        <v>260</v>
-      </c>
       <c r="C221" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E221" s="6">
         <v>563504</v>
@@ -17522,31 +17522,31 @@
       </c>
       <c r="U221" s="8"/>
       <c r="V221" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="W221" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="W221" s="6" t="s">
+      <c r="X221" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="X221" s="6" t="s">
+      <c r="Y221" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="Y221" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="Z221" s="6"/>
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B222" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B222" s="6" t="s">
-        <v>262</v>
-      </c>
       <c r="C222" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E222" s="6">
         <v>563981</v>
@@ -17596,31 +17596,31 @@
       </c>
       <c r="U222" s="8"/>
       <c r="V222" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W222" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="W222" s="6" t="s">
+      <c r="X222" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="X222" s="6" t="s">
+      <c r="Y222" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="Y222" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="Z222" s="6"/>
     </row>
     <row r="223" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B223" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B223" s="6" t="s">
-        <v>264</v>
-      </c>
       <c r="C223" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E223" s="6">
         <v>563352</v>
@@ -17670,31 +17670,31 @@
       </c>
       <c r="U223" s="8"/>
       <c r="V223" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W223" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W223" s="6" t="s">
+      <c r="X223" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X223" s="6" t="s">
+      <c r="Y223" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y223" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z223" s="6"/>
     </row>
     <row r="224" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B224" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B224" s="6" t="s">
-        <v>264</v>
-      </c>
       <c r="C224" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E224" s="6">
         <v>563627</v>
@@ -17744,31 +17744,31 @@
       </c>
       <c r="U224" s="8"/>
       <c r="V224" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W224" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W224" s="6" t="s">
+      <c r="X224" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X224" s="6" t="s">
+      <c r="Y224" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y224" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z224" s="6"/>
     </row>
     <row r="225" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B225" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B225" s="6" t="s">
-        <v>264</v>
-      </c>
       <c r="C225" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E225" s="6">
         <v>563614</v>
@@ -17818,31 +17818,31 @@
       </c>
       <c r="U225" s="8"/>
       <c r="V225" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W225" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W225" s="6" t="s">
+      <c r="X225" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X225" s="6" t="s">
+      <c r="Y225" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="Y225" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="Z225" s="6"/>
     </row>
     <row r="226" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E226" s="6">
         <v>563758</v>
@@ -17892,29 +17892,29 @@
       </c>
       <c r="U226" s="8"/>
       <c r="V226" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W226" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W226" s="6" t="s">
+      <c r="X226" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X226" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y226" s="6"/>
       <c r="Z226" s="6"/>
     </row>
     <row r="227" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E227" s="6">
         <v>563798</v>
@@ -17964,29 +17964,29 @@
       </c>
       <c r="U227" s="8"/>
       <c r="V227" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W227" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W227" s="6" t="s">
+      <c r="X227" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X227" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y227" s="6"/>
       <c r="Z227" s="6"/>
     </row>
     <row r="228" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E228" s="6">
         <v>563940</v>
@@ -18036,31 +18036,31 @@
       </c>
       <c r="U228" s="8"/>
       <c r="V228" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W228" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="X228" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W228" s="6" t="s">
+      <c r="Y228" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="X228" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y228" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="Z228" s="6"/>
     </row>
     <row r="229" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B229" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B229" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="C229" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E229" s="6">
         <v>563586</v>
@@ -18106,29 +18106,29 @@
       <c r="T229" s="8"/>
       <c r="U229" s="8"/>
       <c r="V229" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W229" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W229" s="6" t="s">
+      <c r="X229" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X229" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y229" s="6"/>
       <c r="Z229" s="6"/>
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E230" s="6">
         <v>563760</v>
@@ -18174,13 +18174,13 @@
       <c r="T230" s="8"/>
       <c r="U230" s="8"/>
       <c r="V230" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W230" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W230" s="6" t="s">
+      <c r="X230" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="X230" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="Y230" s="6"/>
       <c r="Z230" s="6"/>
@@ -18198,15 +18198,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006E09ED70DB642D4B9BD31C483C6D1A9B" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f6fb79bde24386295afe6ab524623f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="714cddda-8559-438b-b312-db41d746d1af" xmlns:ns4="4f5b0aa6-473f-42bc-a495-b257f0a9a30c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="08eae0d1e1b8264264be792919d48053" ns3:_="" ns4:_="">
     <xsd:import namespace="714cddda-8559-438b-b312-db41d746d1af"/>
@@ -18429,6 +18420,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -18436,14 +18436,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B4354D8-CC6F-4928-B5E8-99381BF6195C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9820F06-FFBF-4A18-B4D2-B4630FF3A681}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18462,6 +18454,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B4354D8-CC6F-4928-B5E8-99381BF6195C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D5B28A-A2F3-4810-B923-4B202FA8E6ED}">
   <ds:schemaRefs>
